--- a/converter/data/xlsx/17.12._BSMJENA.XLSX
+++ b/converter/data/xlsx/17.12._BSMJENA.XLSX
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="9390" tabRatio="478"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="111">
   <si>
     <t>Predmetni profesor:</t>
   </si>
@@ -414,8 +414,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="38">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="38" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3351,6 +3351,18 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3371,18 +3383,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3394,8 +3394,8 @@
   <cellStyles count="5">
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal 3" xfId="4"/>
+    <cellStyle name="Normalno" xfId="0" builtinId="0"/>
     <cellStyle name="Normalno 2" xfId="1"/>
-    <cellStyle name="Obično" xfId="0" builtinId="0"/>
     <cellStyle name="Obično 3" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3527,7 +3527,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema sustava Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3601,6 +3601,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -3635,6 +3636,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3810,17 +3812,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AI69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="75" workbookViewId="0">
-      <selection activeCell="V47" sqref="V47"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="AI6" sqref="AI6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="42.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="6.28515625" style="6" bestFit="1" customWidth="1"/>
@@ -3845,89 +3847,89 @@
     <col min="34" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="27" thickBot="1">
-      <c r="A1" s="444" t="s">
+    <row r="1" spans="1:33" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="448" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="444"/>
-      <c r="C1" s="444"/>
-      <c r="D1" s="444"/>
-      <c r="E1" s="444"/>
-      <c r="F1" s="444"/>
-      <c r="G1" s="444"/>
-      <c r="H1" s="444"/>
-      <c r="I1" s="444"/>
-      <c r="J1" s="444"/>
-      <c r="K1" s="444"/>
-      <c r="L1" s="444"/>
-      <c r="M1" s="444"/>
-      <c r="N1" s="444"/>
-      <c r="O1" s="444"/>
-      <c r="P1" s="444"/>
-      <c r="Q1" s="444"/>
-      <c r="R1" s="444"/>
-      <c r="S1" s="444"/>
-      <c r="T1" s="444"/>
-      <c r="U1" s="444"/>
-      <c r="V1" s="444"/>
-      <c r="W1" s="444"/>
-      <c r="X1" s="444"/>
-      <c r="Y1" s="444"/>
-      <c r="Z1" s="444"/>
-      <c r="AA1" s="444"/>
-      <c r="AB1" s="444"/>
-      <c r="AC1" s="444"/>
-      <c r="AD1" s="444"/>
-      <c r="AE1" s="444"/>
-      <c r="AF1" s="444"/>
-    </row>
-    <row r="2" spans="1:33" ht="18">
+      <c r="B1" s="448"/>
+      <c r="C1" s="448"/>
+      <c r="D1" s="448"/>
+      <c r="E1" s="448"/>
+      <c r="F1" s="448"/>
+      <c r="G1" s="448"/>
+      <c r="H1" s="448"/>
+      <c r="I1" s="448"/>
+      <c r="J1" s="448"/>
+      <c r="K1" s="448"/>
+      <c r="L1" s="448"/>
+      <c r="M1" s="448"/>
+      <c r="N1" s="448"/>
+      <c r="O1" s="448"/>
+      <c r="P1" s="448"/>
+      <c r="Q1" s="448"/>
+      <c r="R1" s="448"/>
+      <c r="S1" s="448"/>
+      <c r="T1" s="448"/>
+      <c r="U1" s="448"/>
+      <c r="V1" s="448"/>
+      <c r="W1" s="448"/>
+      <c r="X1" s="448"/>
+      <c r="Y1" s="448"/>
+      <c r="Z1" s="448"/>
+      <c r="AA1" s="448"/>
+      <c r="AB1" s="448"/>
+      <c r="AC1" s="448"/>
+      <c r="AD1" s="448"/>
+      <c r="AE1" s="448"/>
+      <c r="AF1" s="448"/>
+    </row>
+    <row r="2" spans="1:33" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="445" t="s">
+      <c r="B2" s="449" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="446"/>
-      <c r="D2" s="446"/>
-      <c r="E2" s="446"/>
-      <c r="F2" s="446"/>
-      <c r="G2" s="446"/>
-      <c r="H2" s="447"/>
-      <c r="I2" s="448" t="s">
+      <c r="C2" s="450"/>
+      <c r="D2" s="450"/>
+      <c r="E2" s="450"/>
+      <c r="F2" s="450"/>
+      <c r="G2" s="450"/>
+      <c r="H2" s="451"/>
+      <c r="I2" s="452" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="446"/>
-      <c r="K2" s="446"/>
-      <c r="L2" s="446"/>
-      <c r="M2" s="446"/>
-      <c r="N2" s="446"/>
-      <c r="O2" s="447"/>
-      <c r="P2" s="445" t="s">
+      <c r="J2" s="450"/>
+      <c r="K2" s="450"/>
+      <c r="L2" s="450"/>
+      <c r="M2" s="450"/>
+      <c r="N2" s="450"/>
+      <c r="O2" s="451"/>
+      <c r="P2" s="449" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="446"/>
-      <c r="R2" s="446"/>
-      <c r="S2" s="446"/>
-      <c r="T2" s="446"/>
-      <c r="U2" s="446"/>
-      <c r="V2" s="447"/>
-      <c r="W2" s="448" t="s">
+      <c r="Q2" s="450"/>
+      <c r="R2" s="450"/>
+      <c r="S2" s="450"/>
+      <c r="T2" s="450"/>
+      <c r="U2" s="450"/>
+      <c r="V2" s="451"/>
+      <c r="W2" s="452" t="s">
         <v>4</v>
       </c>
-      <c r="X2" s="446"/>
-      <c r="Y2" s="446"/>
-      <c r="Z2" s="446"/>
-      <c r="AA2" s="446"/>
-      <c r="AB2" s="446"/>
-      <c r="AC2" s="447"/>
-      <c r="AD2" s="449" t="s">
+      <c r="X2" s="450"/>
+      <c r="Y2" s="450"/>
+      <c r="Z2" s="450"/>
+      <c r="AA2" s="450"/>
+      <c r="AB2" s="450"/>
+      <c r="AC2" s="451"/>
+      <c r="AD2" s="453" t="s">
         <v>24</v>
       </c>
-      <c r="AE2" s="449"/>
-      <c r="AF2" s="450"/>
-    </row>
-    <row r="3" spans="1:33" ht="15.75" thickBot="1">
+      <c r="AE2" s="453"/>
+      <c r="AF2" s="454"/>
+    </row>
+    <row r="3" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
@@ -4025,7 +4027,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="18" customHeight="1" thickTop="1">
+    <row r="4" spans="1:33" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="66" t="s">
         <v>64</v>
       </c>
@@ -4061,7 +4063,7 @@
       <c r="AE4" s="31"/>
       <c r="AF4" s="232"/>
     </row>
-    <row r="5" spans="1:33" ht="18" customHeight="1">
+    <row r="5" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="146" t="s">
         <v>80</v>
       </c>
@@ -4135,11 +4137,9 @@
       <c r="AE5" s="80" t="s">
         <v>70</v>
       </c>
-      <c r="AF5" s="203" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" ht="18" customHeight="1">
+      <c r="AF5" s="203"/>
+    </row>
+    <row r="6" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>37</v>
       </c>
@@ -4211,7 +4211,7 @@
       <c r="AE6" s="37"/>
       <c r="AF6" s="41"/>
     </row>
-    <row r="7" spans="1:33" ht="18" customHeight="1" thickBot="1">
+    <row r="7" spans="1:33" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>46</v>
       </c>
@@ -4271,7 +4271,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:33" ht="18" customHeight="1">
+    <row r="8" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>47</v>
       </c>
@@ -4335,7 +4335,7 @@
       </c>
       <c r="AF8" s="35"/>
     </row>
-    <row r="9" spans="1:33" ht="18" customHeight="1">
+    <row r="9" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>23</v>
       </c>
@@ -4389,7 +4389,7 @@
       </c>
       <c r="AF9" s="35"/>
     </row>
-    <row r="10" spans="1:33" ht="18" customHeight="1">
+    <row r="10" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>81</v>
       </c>
@@ -4453,7 +4453,7 @@
       </c>
       <c r="AF10" s="35"/>
     </row>
-    <row r="11" spans="1:33" ht="18" customHeight="1">
+    <row r="11" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>65</v>
       </c>
@@ -4513,7 +4513,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:33" ht="18" customHeight="1" thickBot="1">
+    <row r="12" spans="1:33" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>10</v>
       </c>
@@ -4555,7 +4555,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:33" ht="18" customHeight="1">
+    <row r="13" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>20</v>
       </c>
@@ -4611,7 +4611,7 @@
       <c r="AE13" s="12"/>
       <c r="AF13" s="35"/>
     </row>
-    <row r="14" spans="1:33" ht="18" customHeight="1">
+    <row r="14" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>13</v>
       </c>
@@ -4651,7 +4651,7 @@
       <c r="AE14" s="12"/>
       <c r="AF14" s="35"/>
     </row>
-    <row r="15" spans="1:33" ht="18" customHeight="1">
+    <row r="15" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>107</v>
       </c>
@@ -4691,7 +4691,7 @@
       <c r="AE15" s="12"/>
       <c r="AF15" s="35"/>
     </row>
-    <row r="16" spans="1:33" ht="18" customHeight="1">
+    <row r="16" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>17</v>
       </c>
@@ -4744,7 +4744,7 @@
       </c>
       <c r="AG16" s="114"/>
     </row>
-    <row r="17" spans="1:35" ht="18" customHeight="1">
+    <row r="17" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>15</v>
       </c>
@@ -4799,7 +4799,7 @@
       </c>
       <c r="AG17" s="114"/>
     </row>
-    <row r="18" spans="1:35" ht="18" customHeight="1">
+    <row r="18" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>48</v>
       </c>
@@ -4854,7 +4854,7 @@
       </c>
       <c r="AG18" s="114"/>
     </row>
-    <row r="19" spans="1:35" ht="18" customHeight="1">
+    <row r="19" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>40</v>
       </c>
@@ -4899,7 +4899,7 @@
       </c>
       <c r="AG19" s="114"/>
     </row>
-    <row r="20" spans="1:35" ht="18" customHeight="1">
+    <row r="20" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
         <v>92</v>
       </c>
@@ -4936,7 +4936,7 @@
       <c r="AF20" s="35"/>
       <c r="AG20" s="114"/>
     </row>
-    <row r="21" spans="1:35" ht="18" customHeight="1">
+    <row r="21" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
         <v>5</v>
       </c>
@@ -4985,7 +4985,7 @@
       </c>
       <c r="AG21" s="114"/>
     </row>
-    <row r="22" spans="1:35" ht="18" customHeight="1" thickBot="1">
+    <row r="22" spans="1:35" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>50</v>
       </c>
@@ -5039,7 +5039,7 @@
       <c r="AG22" s="114"/>
       <c r="AH22" s="114"/>
     </row>
-    <row r="23" spans="1:35" ht="18" customHeight="1">
+    <row r="23" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
         <v>22</v>
       </c>
@@ -5102,7 +5102,7 @@
       <c r="AF23" s="29"/>
       <c r="AI23" s="114"/>
     </row>
-    <row r="24" spans="1:35" ht="18" customHeight="1">
+    <row r="24" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
         <v>21</v>
       </c>
@@ -5160,7 +5160,7 @@
       <c r="AE24" s="40"/>
       <c r="AF24" s="29"/>
     </row>
-    <row r="25" spans="1:35" ht="18" customHeight="1">
+    <row r="25" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
         <v>76</v>
       </c>
@@ -5229,7 +5229,7 @@
       </c>
       <c r="AH25" s="114"/>
     </row>
-    <row r="26" spans="1:35" ht="18" customHeight="1">
+    <row r="26" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
         <v>83</v>
       </c>
@@ -5270,7 +5270,7 @@
       <c r="AF26" s="29"/>
       <c r="AH26" s="114"/>
     </row>
-    <row r="27" spans="1:35" ht="18" customHeight="1" thickBot="1">
+    <row r="27" spans="1:35" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="10" t="s">
         <v>49</v>
       </c>
@@ -5338,7 +5338,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:35" ht="18" customHeight="1">
+    <row r="28" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
         <v>42</v>
       </c>
@@ -5408,7 +5408,7 @@
       <c r="AG28" s="245"/>
       <c r="AH28" s="245"/>
     </row>
-    <row r="29" spans="1:35" ht="18" customHeight="1">
+    <row r="29" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
         <v>43</v>
       </c>
@@ -5462,7 +5462,7 @@
       <c r="AG29" s="246"/>
       <c r="AH29" s="247"/>
     </row>
-    <row r="30" spans="1:35" ht="18" customHeight="1">
+    <row r="30" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
         <v>51</v>
       </c>
@@ -5514,7 +5514,7 @@
       <c r="AG30" s="247"/>
       <c r="AH30" s="248"/>
     </row>
-    <row r="31" spans="1:35" ht="18" customHeight="1" thickBot="1">
+    <row r="31" spans="1:35" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="140" t="s">
         <v>39</v>
       </c>
@@ -5583,7 +5583,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:35" ht="18" customHeight="1">
+    <row r="32" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
         <v>38</v>
       </c>
@@ -5660,7 +5660,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:33" ht="18" customHeight="1">
+    <row r="33" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
         <v>18</v>
       </c>
@@ -5731,7 +5731,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:33" ht="18" customHeight="1">
+    <row r="34" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
         <v>63</v>
       </c>
@@ -5780,7 +5780,7 @@
       <c r="AF34" s="52"/>
       <c r="AG34" s="162"/>
     </row>
-    <row r="35" spans="1:33" ht="18" customHeight="1">
+    <row r="35" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
         <v>6</v>
       </c>
@@ -5837,7 +5837,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:33" ht="18" customHeight="1">
+    <row r="36" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="17" t="s">
         <v>12</v>
       </c>
@@ -5890,7 +5890,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:33" ht="18" customHeight="1">
+    <row r="37" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="17" t="s">
         <v>45</v>
       </c>
@@ -5949,7 +5949,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:33" ht="18" customHeight="1">
+    <row r="38" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="17" t="s">
         <v>16</v>
       </c>
@@ -5996,7 +5996,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:33" ht="18" customHeight="1" thickBot="1">
+    <row r="39" spans="1:33" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
         <v>7</v>
       </c>
@@ -6079,7 +6079,7 @@
       </c>
       <c r="AG39" s="161"/>
     </row>
-    <row r="40" spans="1:33" ht="18" customHeight="1">
+    <row r="40" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="146" t="s">
         <v>84</v>
       </c>
@@ -6145,7 +6145,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="41" spans="1:33" ht="18" customHeight="1">
+    <row r="41" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="17" t="s">
         <v>85</v>
       </c>
@@ -6211,7 +6211,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="1:33" ht="18" customHeight="1">
+    <row r="42" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="17" t="s">
         <v>66</v>
       </c>
@@ -6289,7 +6289,7 @@
       <c r="AE42" s="165"/>
       <c r="AF42" s="52"/>
     </row>
-    <row r="43" spans="1:33" ht="18" customHeight="1">
+    <row r="43" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="17" t="s">
         <v>44</v>
       </c>
@@ -6339,7 +6339,7 @@
       <c r="AE43" s="40"/>
       <c r="AF43" s="52"/>
     </row>
-    <row r="44" spans="1:33" ht="18" customHeight="1">
+    <row r="44" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="17" t="s">
         <v>98</v>
       </c>
@@ -6379,7 +6379,7 @@
       <c r="AE44" s="165"/>
       <c r="AF44" s="52"/>
     </row>
-    <row r="45" spans="1:33" ht="18" customHeight="1" thickBot="1">
+    <row r="45" spans="1:33" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
         <v>67</v>
       </c>
@@ -6433,7 +6433,7 @@
       <c r="AE45" s="25"/>
       <c r="AF45" s="192"/>
     </row>
-    <row r="46" spans="1:33" ht="18" customHeight="1">
+    <row r="46" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="16" t="s">
         <v>8</v>
       </c>
@@ -6482,7 +6482,7 @@
       </c>
       <c r="AG46" s="132"/>
     </row>
-    <row r="47" spans="1:33" ht="18" customHeight="1">
+    <row r="47" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="15" t="s">
         <v>19</v>
       </c>
@@ -6533,7 +6533,7 @@
       </c>
       <c r="AG47" s="108"/>
     </row>
-    <row r="48" spans="1:33" ht="18" customHeight="1" thickBot="1">
+    <row r="48" spans="1:33" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
         <v>9</v>
       </c>
@@ -6590,7 +6590,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="49" spans="1:34" ht="18" customHeight="1" thickBot="1">
+    <row r="49" spans="1:34" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="315" t="s">
         <v>99</v>
       </c>
@@ -6634,7 +6634,7 @@
       <c r="AE49" s="37"/>
       <c r="AF49" s="41"/>
     </row>
-    <row r="50" spans="1:34" ht="18" customHeight="1">
+    <row r="50" spans="1:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="16" t="s">
         <v>11</v>
       </c>
@@ -6694,7 +6694,7 @@
       </c>
       <c r="AF50" s="56"/>
     </row>
-    <row r="51" spans="1:34" ht="18" customHeight="1">
+    <row r="51" spans="1:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="15" t="s">
         <v>82</v>
       </c>
@@ -6752,7 +6752,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="52" spans="1:34" ht="18" customHeight="1" thickBot="1">
+    <row r="52" spans="1:34" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="10" t="s">
         <v>72</v>
       </c>
@@ -6808,7 +6808,7 @@
       <c r="AE52" s="25"/>
       <c r="AF52" s="43"/>
     </row>
-    <row r="53" spans="1:34" ht="18" customHeight="1">
+    <row r="53" spans="1:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="19" t="s">
         <v>59</v>
       </c>
@@ -6881,7 +6881,7 @@
       <c r="AF53" s="265"/>
       <c r="AG53" s="114"/>
     </row>
-    <row r="54" spans="1:34" ht="18" customHeight="1">
+    <row r="54" spans="1:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="20" t="s">
         <v>77</v>
       </c>
@@ -6942,7 +6942,7 @@
       <c r="AF54" s="45"/>
       <c r="AH54" s="114"/>
     </row>
-    <row r="55" spans="1:34" ht="18" customHeight="1">
+    <row r="55" spans="1:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="20" t="s">
         <v>109</v>
       </c>
@@ -7028,7 +7028,7 @@
       <c r="AE55" s="49"/>
       <c r="AF55" s="60"/>
     </row>
-    <row r="56" spans="1:34" ht="18" customHeight="1">
+    <row r="56" spans="1:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="20" t="s">
         <v>60</v>
       </c>
@@ -7112,7 +7112,7 @@
       <c r="AE56" s="49"/>
       <c r="AF56" s="60"/>
     </row>
-    <row r="57" spans="1:34" ht="18" customHeight="1">
+    <row r="57" spans="1:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="20" t="s">
         <v>106</v>
       </c>
@@ -7152,7 +7152,7 @@
       <c r="AE57" s="49"/>
       <c r="AF57" s="116"/>
     </row>
-    <row r="58" spans="1:34" ht="18" customHeight="1">
+    <row r="58" spans="1:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="20" t="s">
         <v>52</v>
       </c>
@@ -7213,7 +7213,7 @@
       <c r="AF58" s="116"/>
       <c r="AG58" s="114"/>
     </row>
-    <row r="59" spans="1:34" ht="18" customHeight="1">
+    <row r="59" spans="1:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="20" t="s">
         <v>79</v>
       </c>
@@ -7298,7 +7298,7 @@
       <c r="AF59" s="86"/>
       <c r="AG59" s="114"/>
     </row>
-    <row r="60" spans="1:34" ht="18" customHeight="1">
+    <row r="60" spans="1:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="17" t="s">
         <v>78</v>
       </c>
@@ -7363,7 +7363,7 @@
       <c r="AF60" s="129"/>
       <c r="AG60" s="114"/>
     </row>
-    <row r="61" spans="1:34" ht="20.25" customHeight="1">
+    <row r="61" spans="1:34" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="20" t="s">
         <v>41</v>
       </c>
@@ -7430,7 +7430,7 @@
       <c r="AF61" s="431"/>
       <c r="AG61" s="115"/>
     </row>
-    <row r="62" spans="1:34" ht="20.25" customHeight="1">
+    <row r="62" spans="1:34" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="87" t="s">
         <v>75</v>
       </c>
@@ -7501,7 +7501,7 @@
       <c r="AF62" s="129"/>
       <c r="AH62" s="114"/>
     </row>
-    <row r="63" spans="1:34" ht="20.25" customHeight="1" thickBot="1">
+    <row r="63" spans="1:34" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="21" t="s">
         <v>62</v>
       </c>
@@ -7562,7 +7562,7 @@
       <c r="AF63" s="154"/>
       <c r="AH63" s="114"/>
     </row>
-    <row r="64" spans="1:34" ht="13.5" thickBot="1">
+    <row r="64" spans="1:34" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B64" s="64"/>
       <c r="C64" s="64"/>
       <c r="D64" s="64"/>
@@ -7595,68 +7595,68 @@
       <c r="AE64" s="64"/>
       <c r="AF64" s="64"/>
     </row>
-    <row r="65" spans="1:32" ht="21" thickBot="1">
+    <row r="65" spans="1:32" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B65" s="453" t="s">
+      <c r="B65" s="446" t="s">
         <v>49</v>
       </c>
-      <c r="C65" s="451"/>
-      <c r="D65" s="451"/>
-      <c r="E65" s="451"/>
-      <c r="F65" s="451"/>
-      <c r="G65" s="451"/>
-      <c r="H65" s="454"/>
-      <c r="I65" s="453" t="s">
+      <c r="C65" s="444"/>
+      <c r="D65" s="444"/>
+      <c r="E65" s="444"/>
+      <c r="F65" s="444"/>
+      <c r="G65" s="444"/>
+      <c r="H65" s="447"/>
+      <c r="I65" s="446" t="s">
         <v>109</v>
       </c>
-      <c r="J65" s="451"/>
-      <c r="K65" s="451"/>
-      <c r="L65" s="451"/>
-      <c r="M65" s="451"/>
-      <c r="N65" s="451"/>
-      <c r="O65" s="454"/>
-      <c r="P65" s="453" t="s">
+      <c r="J65" s="444"/>
+      <c r="K65" s="444"/>
+      <c r="L65" s="444"/>
+      <c r="M65" s="444"/>
+      <c r="N65" s="444"/>
+      <c r="O65" s="447"/>
+      <c r="P65" s="446" t="s">
         <v>42</v>
       </c>
-      <c r="Q65" s="451"/>
-      <c r="R65" s="451"/>
-      <c r="S65" s="451"/>
-      <c r="T65" s="451"/>
-      <c r="U65" s="451"/>
-      <c r="V65" s="454"/>
-      <c r="W65" s="453" t="s">
+      <c r="Q65" s="444"/>
+      <c r="R65" s="444"/>
+      <c r="S65" s="444"/>
+      <c r="T65" s="444"/>
+      <c r="U65" s="444"/>
+      <c r="V65" s="447"/>
+      <c r="W65" s="446" t="s">
         <v>85</v>
       </c>
-      <c r="X65" s="451"/>
-      <c r="Y65" s="451"/>
-      <c r="Z65" s="451"/>
-      <c r="AA65" s="451"/>
-      <c r="AB65" s="451"/>
-      <c r="AC65" s="454"/>
-      <c r="AD65" s="451" t="s">
+      <c r="X65" s="444"/>
+      <c r="Y65" s="444"/>
+      <c r="Z65" s="444"/>
+      <c r="AA65" s="444"/>
+      <c r="AB65" s="444"/>
+      <c r="AC65" s="447"/>
+      <c r="AD65" s="444" t="s">
         <v>110</v>
       </c>
-      <c r="AE65" s="451"/>
-      <c r="AF65" s="452"/>
-    </row>
-    <row r="69" spans="1:32">
+      <c r="AE65" s="444"/>
+      <c r="AF65" s="445"/>
+    </row>
+    <row r="69" spans="1:32" x14ac:dyDescent="0.2">
       <c r="O69" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="AD65:AF65"/>
-    <mergeCell ref="W65:AC65"/>
-    <mergeCell ref="B65:H65"/>
-    <mergeCell ref="I65:O65"/>
-    <mergeCell ref="P65:V65"/>
     <mergeCell ref="A1:AF1"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="I2:O2"/>
     <mergeCell ref="P2:V2"/>
     <mergeCell ref="W2:AC2"/>
     <mergeCell ref="AD2:AF2"/>
+    <mergeCell ref="AD65:AF65"/>
+    <mergeCell ref="W65:AC65"/>
+    <mergeCell ref="B65:H65"/>
+    <mergeCell ref="I65:O65"/>
+    <mergeCell ref="P65:V65"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -7668,14 +7668,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F37"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="193"/>
     <col min="2" max="2" width="16.42578125" style="193" customWidth="1"/>
@@ -7684,19 +7684,19 @@
     <col min="5" max="16384" width="9.140625" style="193"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="18.75">
+    <row r="1" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="455" t="s">
         <v>25</v>
       </c>
       <c r="C1" s="455"/>
       <c r="D1" s="455"/>
     </row>
-    <row r="2" spans="2:6" ht="18.75" thickBot="1">
+    <row r="2" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="170"/>
       <c r="C2" s="91"/>
       <c r="D2" s="92"/>
     </row>
-    <row r="3" spans="2:6" ht="18.75" thickBot="1">
+    <row r="3" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="197"/>
       <c r="C3" s="91" t="s">
         <v>26</v>
@@ -7705,12 +7705,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="18.75" thickBot="1">
+    <row r="4" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="170"/>
       <c r="C4" s="91"/>
       <c r="D4" s="92"/>
     </row>
-    <row r="5" spans="2:6" ht="18.75" thickBot="1">
+    <row r="5" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="171"/>
       <c r="C5" s="91" t="s">
         <v>26</v>
@@ -7719,12 +7719,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="18.75" thickBot="1">
+    <row r="6" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="170"/>
       <c r="C6" s="91"/>
       <c r="D6" s="92"/>
     </row>
-    <row r="7" spans="2:6" ht="18.75" thickBot="1">
+    <row r="7" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="172"/>
       <c r="C7" s="91" t="s">
         <v>26</v>
@@ -7733,12 +7733,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="18.75" thickBot="1">
+    <row r="8" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="170"/>
       <c r="C8" s="91"/>
       <c r="D8" s="92"/>
     </row>
-    <row r="9" spans="2:6" ht="18.75" thickBot="1">
+    <row r="9" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="93"/>
       <c r="C9" s="91" t="s">
         <v>26</v>
@@ -7747,25 +7747,25 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="18.75" thickBot="1">
+    <row r="10" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="173"/>
       <c r="C10" s="174"/>
       <c r="D10" s="92"/>
     </row>
-    <row r="11" spans="2:6" ht="18.75" thickBot="1">
+    <row r="11" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="196"/>
       <c r="C11" s="175"/>
       <c r="D11" s="92" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="18.75" thickBot="1">
+    <row r="12" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="176"/>
       <c r="C12" s="91"/>
       <c r="D12" s="177"/>
       <c r="F12" s="195"/>
     </row>
-    <row r="13" spans="2:6" ht="18.75" thickBot="1">
+    <row r="13" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="178"/>
       <c r="C13" s="91" t="s">
         <v>26</v>
@@ -7774,12 +7774,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="18.75" thickBot="1">
+    <row r="14" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="170"/>
       <c r="C14" s="91"/>
       <c r="D14" s="92"/>
     </row>
-    <row r="15" spans="2:6" ht="18.75" thickBot="1">
+    <row r="15" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="199"/>
       <c r="C15" s="91" t="s">
         <v>26</v>
@@ -7788,12 +7788,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="18.75" thickBot="1">
+    <row r="16" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="170"/>
       <c r="C16" s="91"/>
       <c r="D16" s="92"/>
     </row>
-    <row r="17" spans="2:4" ht="18.75" thickBot="1">
+    <row r="17" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="94"/>
       <c r="C17" s="91" t="s">
         <v>26</v>
@@ -7802,12 +7802,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="18.75" thickBot="1">
+    <row r="18" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="170"/>
       <c r="C18" s="91"/>
       <c r="D18" s="92"/>
     </row>
-    <row r="19" spans="2:4" ht="18.75" thickBot="1">
+    <row r="19" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="194"/>
       <c r="C19" s="91" t="s">
         <v>26</v>
@@ -7816,12 +7816,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="18.75" thickBot="1">
+    <row r="20" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="170"/>
       <c r="C20" s="91"/>
       <c r="D20" s="92"/>
     </row>
-    <row r="21" spans="2:4" ht="18.75" thickBot="1">
+    <row r="21" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="95"/>
       <c r="C21" s="91" t="s">
         <v>26</v>
@@ -7830,12 +7830,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="2:4" ht="18.75" thickBot="1">
+    <row r="22" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="170"/>
       <c r="C22" s="91"/>
       <c r="D22" s="92"/>
     </row>
-    <row r="23" spans="2:4" ht="18.75" thickBot="1">
+    <row r="23" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="96"/>
       <c r="C23" s="91" t="s">
         <v>26</v>
@@ -7844,12 +7844,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="2:4" ht="15.75" thickBot="1">
+    <row r="24" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="170"/>
       <c r="C24" s="170"/>
       <c r="D24" s="92"/>
     </row>
-    <row r="25" spans="2:4" ht="21" thickBot="1">
+    <row r="25" spans="2:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="97"/>
       <c r="C25" s="91" t="s">
         <v>26</v>
@@ -7858,74 +7858,74 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="2:4" ht="15.75" thickBot="1">
+    <row r="26" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="170"/>
       <c r="C26" s="170"/>
       <c r="D26" s="170"/>
     </row>
-    <row r="27" spans="2:4" ht="15.75" thickBot="1">
+    <row r="27" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="179"/>
       <c r="C27" s="170"/>
       <c r="D27" s="92" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="2:4" ht="15.75" thickBot="1">
+    <row r="28" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="170"/>
       <c r="C28" s="170"/>
       <c r="D28" s="92"/>
     </row>
-    <row r="29" spans="2:4" ht="15.75" thickBot="1">
+    <row r="29" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="98"/>
       <c r="C29" s="170"/>
       <c r="D29" s="92" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="2:4" ht="15.75" thickBot="1">
+    <row r="30" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="170"/>
       <c r="C30" s="170"/>
       <c r="D30" s="170"/>
     </row>
-    <row r="31" spans="2:4" ht="15.75" thickBot="1">
+    <row r="31" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="99"/>
       <c r="C31" s="170"/>
       <c r="D31" s="92">
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="2:4" ht="15.75" thickBot="1">
+    <row r="32" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="170"/>
       <c r="C32" s="170"/>
       <c r="D32" s="170"/>
     </row>
-    <row r="33" spans="2:4" ht="15.75" thickBot="1">
+    <row r="33" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="180"/>
       <c r="C33" s="170"/>
       <c r="D33" s="92" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="2:4">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" s="170"/>
       <c r="C34" s="170"/>
       <c r="D34" s="170"/>
     </row>
-    <row r="35" spans="2:4" ht="18">
+    <row r="35" spans="2:4" ht="18" x14ac:dyDescent="0.25">
       <c r="B35" s="456" t="s">
         <v>34</v>
       </c>
       <c r="C35" s="456"/>
       <c r="D35" s="456"/>
     </row>
-    <row r="36" spans="2:4" ht="18">
+    <row r="36" spans="2:4" ht="18" x14ac:dyDescent="0.25">
       <c r="B36" s="456" t="s">
         <v>35</v>
       </c>
       <c r="C36" s="456"/>
       <c r="D36" s="456"/>
     </row>
-    <row r="37" spans="2:4" ht="18">
+    <row r="37" spans="2:4" ht="18" x14ac:dyDescent="0.25">
       <c r="B37" s="456" t="s">
         <v>36</v>
       </c>
